--- a/biology/Zoologie/Iona_nigrovittata/Iona_nigrovittata.xlsx
+++ b/biology/Zoologie/Iona_nigrovittata/Iona_nigrovittata.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Iona nigrovittata, unique représentant du genre Iona, est une espèce d'araignées aranéomorphes de la famille des Salticidae[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Iona nigrovittata, unique représentant du genre Iona, est une espèce d'araignées aranéomorphes de la famille des Salticidae.
 </t>
         </is>
       </c>
@@ -511,9 +523,11 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce est endémique des Tonga[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce est endémique des Tonga.
 </t>
         </is>
       </c>
@@ -542,9 +556,11 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La femelle holotype mesure 4,2 mm[2].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La femelle holotype mesure 4,2 mm.
 </t>
         </is>
       </c>
@@ -573,9 +589,11 @@
           <t>Systématique et taxinomie</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce a été décrite sous le protonyme Erasmia nigrovittata par Keyserling en 1882. Le nom Erasmia Keyserling, 1882 étant préoccupé par Erasmia Hope, 1840, il est remplacée par Iona par Peckham et Peckham en 1886[3].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce a été décrite sous le protonyme Erasmia nigrovittata par Keyserling en 1882. Le nom Erasmia Keyserling, 1882 étant préoccupé par Erasmia Hope, 1840, il est remplacée par Iona par Peckham et Peckham en 1886.
 </t>
         </is>
       </c>
@@ -604,7 +622,9 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>Keyserling, 1882 : Die Arachniden Australiens. Nürnberg, vol. 1, p. 1325-1420 (texte intégral).</t>
         </is>
